--- a/DateBase/orders/Dang Nguyen_2025-7-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-31.xlsx
@@ -967,6 +967,9 @@
       <c r="G2" t="str">
         <v>01081010101055103162151510201055151015201515551010156661561010510101051010555510101010101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
